--- a/MFCcontrol/bin/Debug/CVD_recipe_cu_anneal.xlsx
+++ b/MFCcontrol/bin/Debug/CVD_recipe_cu_anneal.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,15 +626,12 @@
         <v>500</v>
       </c>
       <c r="J5">
-        <v>23</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>37</v>
-      </c>
-      <c r="J6">
-        <v>1057</v>
       </c>
       <c r="S6" t="s">
         <v>17</v>
